--- a/dados_teste.xlsx
+++ b/dados_teste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliso\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive - Insper - Institudo de Ensino e Pesquisa\Projeto 1\C.DadosP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41976AE-5C33-4738-AF8C-EE25EF57E0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C171A-08D1-477B-9687-FB38C900020B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,9 +636,6 @@
     <t>Incapaz de conviver com ideias diferentes na academia brasileira, resolveu estudar filosofia sozinho. Essa sua incapacidade, no entanto, é algo que marca toda a sua trajetória de vida, se traduzindo em uma profunda intolerância a qualquer pensamento divergente do seu. Não sou Petista, nem comunista e nada disso, mas tem muita coisa melhor para ler.</t>
   </si>
   <si>
-    <t>Acionável (para amazon)/direcionável (para editora)/não acionável(autor ou irrelevante)</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -796,6 +793,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Acionável/Direcionável/Não Acionável</t>
   </si>
 </sst>
 </file>
@@ -1167,13 +1167,13 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="84.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,407 +1181,407 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -1605,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1637,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1645,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1661,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1669,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1685,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1693,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1701,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>16</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1725,7 +1725,7 @@
         <v>18</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1749,7 +1749,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1765,7 +1765,7 @@
         <v>23</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>25</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1789,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1797,7 +1797,7 @@
         <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1805,7 +1805,7 @@
         <v>28</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>30</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -1829,7 +1829,7 @@
         <v>31</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1853,7 +1853,7 @@
         <v>34</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1861,7 +1861,7 @@
         <v>35</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>36</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
         <v>37</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1893,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>40</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
         <v>41</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -1917,7 +1917,7 @@
         <v>42</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>43</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,7 +1933,7 @@
         <v>44</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
         <v>45</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>31</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>46</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1965,7 +1965,7 @@
         <v>47</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1973,7 +1973,7 @@
         <v>48</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>49</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -1997,7 +1997,7 @@
         <v>51</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2005,7 +2005,7 @@
         <v>52</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2013,7 +2013,7 @@
         <v>53</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2021,7 +2021,7 @@
         <v>54</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2037,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
         <v>58</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2061,7 +2061,7 @@
         <v>59</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2069,7 +2069,7 @@
         <v>60</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2077,7 +2077,7 @@
         <v>61</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2085,7 +2085,7 @@
         <v>62</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2093,7 +2093,7 @@
         <v>63</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2101,7 +2101,7 @@
         <v>64</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -2117,7 +2117,7 @@
         <v>66</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>68</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2141,7 +2141,7 @@
         <v>69</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2149,7 +2149,7 @@
         <v>70</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2157,7 +2157,7 @@
         <v>71</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
         <v>72</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2173,7 +2173,7 @@
         <v>73</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2181,7 +2181,7 @@
         <v>74</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2189,7 +2189,7 @@
         <v>75</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
         <v>76</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
         <v>77</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2213,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2237,7 +2237,7 @@
         <v>81</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>83</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2261,7 +2261,7 @@
         <v>84</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2269,7 +2269,7 @@
         <v>85</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2277,7 +2277,7 @@
         <v>86</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2285,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>88</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2301,7 +2301,7 @@
         <v>89</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2309,7 +2309,7 @@
         <v>90</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2317,7 +2317,7 @@
         <v>91</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2325,7 +2325,7 @@
         <v>92</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2333,7 +2333,7 @@
         <v>93</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="184.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2341,7 +2341,7 @@
         <v>94</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>95</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2357,7 +2357,7 @@
         <v>96</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2365,7 +2365,7 @@
         <v>97</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>98</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>99</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2397,7 +2397,7 @@
         <v>101</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
         <v>102</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2413,7 +2413,7 @@
         <v>103</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>104</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
         <v>105</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2437,7 +2437,7 @@
         <v>106</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2445,7 +2445,7 @@
         <v>107</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>108</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2461,7 +2461,7 @@
         <v>109</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>110</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>111</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="216" x14ac:dyDescent="0.3">
@@ -2485,7 +2485,7 @@
         <v>112</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
         <v>113</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>114</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -2509,7 +2509,7 @@
         <v>115</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2517,7 +2517,7 @@
         <v>116</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2525,7 +2525,7 @@
         <v>117</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2533,15 +2533,15 @@
         <v>118</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
         <v>120</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>121</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>122</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2573,7 +2573,7 @@
         <v>123</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2581,7 +2581,7 @@
         <v>124</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2589,7 +2589,7 @@
         <v>125</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2597,7 +2597,7 @@
         <v>126</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2605,7 +2605,7 @@
         <v>127</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2613,7 +2613,7 @@
         <v>128</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2621,7 +2621,7 @@
         <v>129</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2629,7 +2629,7 @@
         <v>130</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -2637,7 +2637,7 @@
         <v>131</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2645,7 +2645,7 @@
         <v>132</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2653,7 +2653,7 @@
         <v>133</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2661,7 +2661,7 @@
         <v>134</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>135</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2677,7 +2677,7 @@
         <v>136</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2685,7 +2685,7 @@
         <v>137</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>138</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2701,7 +2701,7 @@
         <v>139</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2709,7 +2709,7 @@
         <v>140</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>141</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2725,7 +2725,7 @@
         <v>142</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2733,7 +2733,7 @@
         <v>143</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2741,7 +2741,7 @@
         <v>144</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2749,7 +2749,7 @@
         <v>145</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2757,7 +2757,7 @@
         <v>146</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,7 +2765,7 @@
         <v>147</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>148</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2781,7 +2781,7 @@
         <v>149</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
         <v>150</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2797,7 +2797,7 @@
         <v>151</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2805,7 +2805,7 @@
         <v>152</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2813,7 +2813,7 @@
         <v>153</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>154</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>155</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2837,7 +2837,7 @@
         <v>156</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
         <v>157</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
         <v>158</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>159</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2869,7 +2869,7 @@
         <v>160</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2877,7 +2877,7 @@
         <v>161</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2885,7 +2885,7 @@
         <v>162</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>163</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +2901,7 @@
         <v>164</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2909,7 +2909,7 @@
         <v>165</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2917,7 +2917,7 @@
         <v>166</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2925,7 +2925,7 @@
         <v>167</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>168</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2949,7 +2949,7 @@
         <v>170</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2957,7 +2957,7 @@
         <v>171</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
         <v>172</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2973,7 +2973,7 @@
         <v>173</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2981,7 +2981,7 @@
         <v>174</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -2989,7 +2989,7 @@
         <v>175</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
         <v>176</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3005,7 +3005,7 @@
         <v>177</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -3013,7 +3013,7 @@
         <v>178</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3021,7 +3021,7 @@
         <v>179</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -3029,7 +3029,7 @@
         <v>180</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3037,7 +3037,7 @@
         <v>181</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -3045,7 +3045,7 @@
         <v>182</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
         <v>183</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -3061,7 +3061,7 @@
         <v>184</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3069,7 +3069,7 @@
         <v>185</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -3077,7 +3077,7 @@
         <v>186</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -3085,7 +3085,7 @@
         <v>187</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3093,7 +3093,7 @@
         <v>188</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3101,7 +3101,7 @@
         <v>189</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
         <v>190</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3117,7 +3117,7 @@
         <v>191</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3125,7 +3125,7 @@
         <v>192</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -3133,7 +3133,7 @@
         <v>193</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3141,7 +3141,7 @@
         <v>194</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="204.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3149,7 @@
         <v>195</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="216" x14ac:dyDescent="0.3">
@@ -3157,7 +3157,7 @@
         <v>196</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>197</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -3173,7 +3173,7 @@
         <v>198</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -3181,7 +3181,7 @@
         <v>199</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3204,6 +3204,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1c427d3e-95b6-469a-b6bf-6e72ceecb804" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009A06489E8877E14D9228533B0A736CB6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6a54b64d4f92b6bb9bdefce1d8135775">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1c427d3e-95b6-469a-b6bf-6e72ceecb804" xmlns:ns4="1d84ccd9-153e-4ca1-995d-ffe50bf64371" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7bcdfe95ddf0e07d53dc40a45aa1665" ns3:_="" ns4:_="">
     <xsd:import namespace="1c427d3e-95b6-469a-b6bf-6e72ceecb804"/>
@@ -3404,24 +3421,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0A069B-F80C-40A9-81C3-30B4BCB9C691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1d84ccd9-153e-4ca1-995d-ffe50bf64371"/>
+    <ds:schemaRef ds:uri="1c427d3e-95b6-469a-b6bf-6e72ceecb804"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1c427d3e-95b6-469a-b6bf-6e72ceecb804" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB76D89-DC67-4C73-BD27-A3088D135E43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F37A83D-AEC8-4947-B0C9-BFFB62DC0640}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3438,29 +3463,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BB76D89-DC67-4C73-BD27-A3088D135E43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0A069B-F80C-40A9-81C3-30B4BCB9C691}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1d84ccd9-153e-4ca1-995d-ffe50bf64371"/>
-    <ds:schemaRef ds:uri="1c427d3e-95b6-469a-b6bf-6e72ceecb804"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>